--- a/resources/nomenclatures.xlsx
+++ b/resources/nomenclatures.xlsx
@@ -10,9 +10,10 @@
   <sheets>
     <sheet name="figaro_countries" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="edgar_countries" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="annex_1_countries" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="cpa_nace_a64" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="gas_type" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="primap_countries" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="annex_1_countries" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="cpa_nace_a64" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="gas_type" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="843">
   <si>
     <t xml:space="preserve">country_code_figaro</t>
   </si>
@@ -611,6 +612,9 @@
     <t xml:space="preserve">Country_code_A3_label</t>
   </si>
   <si>
+    <t xml:space="preserve">country_figaro_label</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABW</t>
   </si>
   <si>
@@ -1691,13 +1695,115 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
+    <t xml:space="preserve">country_code_iso3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_code_iso3_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregated emissions for all countries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNEXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annex I Parties to the Convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONANNEXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Annex I Parties to the Convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance of Small Island States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASIC countries (Brazil, South Africa, India and China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU27BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union post Brexit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least Developed Countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMBRELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbrella Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antartica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatican City State</t>
+  </si>
+  <si>
     <t xml:space="preserve">annex_1_countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
@@ -2487,7 +2593,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2509,7 +2615,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2521,13 +2627,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2575,7 +2693,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2624,6 +2742,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2636,7 +2766,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2670,7 +2800,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -2691,7 +2821,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -3949,7 +4079,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3971,15 +4101,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>77</v>
@@ -3987,10 +4117,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>77</v>
@@ -3998,10 +4128,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>77</v>
@@ -4009,10 +4139,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>77</v>
@@ -4020,24 +4150,24 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>77</v>
@@ -4045,10 +4175,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>77</v>
@@ -4056,10 +4186,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>77</v>
@@ -4081,10 +4211,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>77</v>
@@ -4092,10 +4222,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>77</v>
@@ -4103,10 +4233,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>77</v>
@@ -4142,10 +4272,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>77</v>
@@ -4153,10 +4283,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>77</v>
@@ -4178,10 +4308,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>77</v>
@@ -4189,10 +4319,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>77</v>
@@ -4200,10 +4330,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>77</v>
@@ -4225,10 +4355,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>77</v>
@@ -4236,10 +4366,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>77</v>
@@ -4247,10 +4377,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>77</v>
@@ -4258,10 +4388,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>77</v>
@@ -4269,10 +4399,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>77</v>
@@ -4280,10 +4410,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>77</v>
@@ -4291,10 +4421,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>77</v>
@@ -4316,10 +4446,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>77</v>
@@ -4327,10 +4457,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>77</v>
@@ -4338,10 +4468,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>77</v>
@@ -4349,10 +4479,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>77</v>
@@ -4360,10 +4490,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>77</v>
@@ -4399,10 +4529,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>77</v>
@@ -4424,10 +4554,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>77</v>
@@ -4435,10 +4565,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>77</v>
@@ -4446,10 +4576,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>77</v>
@@ -4457,10 +4587,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>77</v>
@@ -4468,10 +4598,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>77</v>
@@ -4479,10 +4609,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>77</v>
@@ -4490,10 +4620,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>77</v>
@@ -4501,10 +4631,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>77</v>
@@ -4512,10 +4642,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>77</v>
@@ -4523,10 +4653,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>77</v>
@@ -4534,10 +4664,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>77</v>
@@ -4587,10 +4717,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>77</v>
@@ -4598,10 +4728,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>77</v>
@@ -4623,10 +4753,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>77</v>
@@ -4634,10 +4764,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>77</v>
@@ -4645,10 +4775,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>77</v>
@@ -4656,10 +4786,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>77</v>
@@ -4667,10 +4797,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>77</v>
@@ -4678,10 +4808,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>77</v>
@@ -4717,10 +4847,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>77</v>
@@ -4742,10 +4872,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>77</v>
@@ -4753,10 +4883,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>77</v>
@@ -4778,10 +4908,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>77</v>
@@ -4789,10 +4919,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>77</v>
@@ -4800,10 +4930,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>77</v>
@@ -4825,10 +4955,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>77</v>
@@ -4836,10 +4966,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>77</v>
@@ -4847,10 +4977,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>77</v>
@@ -4858,10 +4988,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>77</v>
@@ -4869,10 +4999,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>77</v>
@@ -4880,10 +5010,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>77</v>
@@ -4891,10 +5021,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>77</v>
@@ -4902,10 +5032,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>77</v>
@@ -4927,10 +5057,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>77</v>
@@ -4938,10 +5068,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>77</v>
@@ -4949,10 +5079,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>77</v>
@@ -4960,10 +5090,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>77</v>
@@ -4971,10 +5101,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>77</v>
@@ -4982,10 +5112,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>77</v>
@@ -4993,10 +5123,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>77</v>
@@ -5004,10 +5134,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>77</v>
@@ -5029,10 +5159,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>77</v>
@@ -5096,10 +5226,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>77</v>
@@ -5107,10 +5237,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>77</v>
@@ -5118,10 +5248,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>77</v>
@@ -5129,10 +5259,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>77</v>
@@ -5154,10 +5284,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>77</v>
@@ -5165,10 +5295,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>77</v>
@@ -5190,10 +5320,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>77</v>
@@ -5201,10 +5331,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>77</v>
@@ -5212,10 +5342,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>77</v>
@@ -5223,10 +5353,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>77</v>
@@ -5234,10 +5364,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>77</v>
@@ -5245,10 +5375,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>77</v>
@@ -5270,10 +5400,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>77</v>
@@ -5281,10 +5411,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>77</v>
@@ -5292,10 +5422,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>77</v>
@@ -5303,10 +5433,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>77</v>
@@ -5314,10 +5444,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>77</v>
@@ -5325,10 +5455,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>77</v>
@@ -5336,10 +5466,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>77</v>
@@ -5347,10 +5477,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>77</v>
@@ -5400,10 +5530,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>77</v>
@@ -5411,10 +5541,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>77</v>
@@ -5422,10 +5552,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>77</v>
@@ -5433,10 +5563,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>77</v>
@@ -5444,10 +5574,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>77</v>
@@ -5469,10 +5599,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>77</v>
@@ -5480,10 +5610,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>77</v>
@@ -5491,10 +5621,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>77</v>
@@ -5516,10 +5646,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>77</v>
@@ -5527,10 +5657,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>77</v>
@@ -5538,10 +5668,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>77</v>
@@ -5549,10 +5679,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>77</v>
@@ -5560,10 +5690,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>77</v>
@@ -5571,10 +5701,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>77</v>
@@ -5582,10 +5712,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>77</v>
@@ -5593,10 +5723,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>77</v>
@@ -5604,10 +5734,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>77</v>
@@ -5615,10 +5745,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>77</v>
@@ -5626,10 +5756,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>77</v>
@@ -5637,10 +5767,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>77</v>
@@ -5648,10 +5778,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>77</v>
@@ -5659,10 +5789,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>77</v>
@@ -5670,10 +5800,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>77</v>
@@ -5681,10 +5811,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>77</v>
@@ -5692,10 +5822,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>77</v>
@@ -5731,10 +5861,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>77</v>
@@ -5742,10 +5872,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>77</v>
@@ -5753,10 +5883,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>77</v>
@@ -5764,10 +5894,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>77</v>
@@ -5775,10 +5905,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>77</v>
@@ -5786,10 +5916,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>77</v>
@@ -5797,10 +5927,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>77</v>
@@ -5808,10 +5938,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>77</v>
@@ -5819,10 +5949,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>77</v>
@@ -5830,10 +5960,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>77</v>
@@ -5855,10 +5985,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>77</v>
@@ -5866,10 +5996,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>77</v>
@@ -5891,10 +6021,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>77</v>
@@ -5902,10 +6032,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>77</v>
@@ -5913,10 +6043,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>77</v>
@@ -5924,10 +6054,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>77</v>
@@ -5963,10 +6093,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>77</v>
@@ -5988,10 +6118,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>77</v>
@@ -5999,10 +6129,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>77</v>
@@ -6010,24 +6140,24 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>77</v>
@@ -6035,10 +6165,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>77</v>
@@ -6046,10 +6176,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>77</v>
@@ -6057,10 +6187,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>77</v>
@@ -6068,10 +6198,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>77</v>
@@ -6079,10 +6209,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>77</v>
@@ -6090,10 +6220,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>77</v>
@@ -6101,10 +6231,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>77</v>
@@ -6112,10 +6242,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>77</v>
@@ -6123,10 +6253,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>77</v>
@@ -6176,10 +6306,10 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>77</v>
@@ -6187,10 +6317,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>77</v>
@@ -6198,10 +6328,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>77</v>
@@ -6209,10 +6339,10 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>77</v>
@@ -6220,10 +6350,10 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>77</v>
@@ -6231,10 +6361,10 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>77</v>
@@ -6242,10 +6372,10 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>77</v>
@@ -6253,10 +6383,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>77</v>
@@ -6264,10 +6394,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>77</v>
@@ -6275,10 +6405,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>77</v>
@@ -6286,10 +6416,10 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>77</v>
@@ -6297,10 +6427,10 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>77</v>
@@ -6308,10 +6438,10 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>77</v>
@@ -6319,10 +6449,10 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>77</v>
@@ -6344,10 +6474,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>77</v>
@@ -6355,10 +6485,10 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>77</v>
@@ -6366,10 +6496,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>77</v>
@@ -6377,10 +6507,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>77</v>
@@ -6388,10 +6518,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>77</v>
@@ -6399,10 +6529,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>77</v>
@@ -6424,10 +6554,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>77</v>
@@ -6435,10 +6565,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>77</v>
@@ -6446,10 +6576,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>77</v>
@@ -6457,10 +6587,10 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>77</v>
@@ -6468,10 +6598,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>77</v>
@@ -6479,10 +6609,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>77</v>
@@ -6490,10 +6620,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>77</v>
@@ -6501,10 +6631,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>77</v>
@@ -6512,10 +6642,10 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>77</v>
@@ -6523,10 +6653,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>77</v>
@@ -6548,10 +6678,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>77</v>
@@ -6559,10 +6689,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>77</v>
@@ -6580,6 +6710,2808 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D240"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B241" activeCellId="0" sqref="B241"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="54.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6597,7 +9529,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +9544,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +9619,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +9644,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,7 +9664,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,7 +9674,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +9699,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,7 +9734,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +9753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6844,926 +9776,926 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>565</v>
+        <v>598</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>600</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>568</v>
+        <v>601</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>603</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>571</v>
+        <v>604</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>606</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>574</v>
+        <v>607</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>609</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>577</v>
+        <v>610</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>612</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>581</v>
+        <v>614</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>616</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>585</v>
+        <v>618</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>620</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>588</v>
+        <v>621</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>623</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>591</v>
+        <v>624</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>626</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>594</v>
+        <v>627</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>629</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>597</v>
+        <v>630</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>632</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>600</v>
+        <v>633</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>635</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>603</v>
+        <v>636</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>638</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>606</v>
+        <v>639</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>641</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>609</v>
+        <v>642</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>644</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>612</v>
+        <v>645</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>647</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>615</v>
+        <v>648</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>650</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>618</v>
+        <v>651</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>621</v>
+        <v>654</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>656</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>624</v>
+        <v>657</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>627</v>
+        <v>660</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>662</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>630</v>
+        <v>663</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>665</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>634</v>
+        <v>667</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>669</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>637</v>
+        <v>670</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>672</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>641</v>
+        <v>674</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>676</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>644</v>
+        <v>677</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>679</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>648</v>
+        <v>681</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>683</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>651</v>
+        <v>684</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>686</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>654</v>
+        <v>687</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>689</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>657</v>
+        <v>690</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>692</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>660</v>
+        <v>693</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>695</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>663</v>
+        <v>696</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>698</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>666</v>
+        <v>699</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>701</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>669</v>
+        <v>702</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>704</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>672</v>
+        <v>705</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>707</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>675</v>
+        <v>708</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>710</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>678</v>
+        <v>711</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>713</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>681</v>
+        <v>714</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>716</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>685</v>
+        <v>718</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>720</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>688</v>
+        <v>721</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>723</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>692</v>
+        <v>725</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>727</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>695</v>
+        <v>728</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>730</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>698</v>
+        <v>731</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>733</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>701</v>
+        <v>734</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>736</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>704</v>
+        <v>737</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>739</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>708</v>
+        <v>741</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>743</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>711</v>
+        <v>744</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>746</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>714</v>
+        <v>747</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>749</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>717</v>
+        <v>750</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>752</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>721</v>
+        <v>754</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>756</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>724</v>
+        <v>757</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>759</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>727</v>
+        <v>760</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>730</v>
+        <v>763</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>765</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>734</v>
+        <v>767</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>769</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>738</v>
+        <v>771</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>773</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>742</v>
+        <v>775</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>777</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>745</v>
+        <v>778</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>780</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>749</v>
+        <v>782</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>784</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>753</v>
+        <v>786</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>788</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>756</v>
+        <v>789</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>791</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>759</v>
+        <v>792</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>794</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>762</v>
+        <v>795</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>797</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>765</v>
+        <v>798</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>800</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>768</v>
+        <v>801</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>803</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>770</v>
+        <v>804</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>805</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +10709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7799,134 +10731,134 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>780</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>782</v>
+        <v>817</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>783</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>798</v>
+      <c r="A9" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>801</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
